--- a/biology/Mycologie/Cantharellus_cinereus/Cantharellus_cinereus.xlsx
+++ b/biology/Mycologie/Cantharellus_cinereus/Cantharellus_cinereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chanterelle cendrée
 Cantharellus cinereus, la Chanterelle cendrée, est une espèce de champignons de la famille des Hydnaceae.
@@ -512,9 +524,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (18 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Cantharellus cinereus f. cinereus
 Cantharellus cinereus f. multiplex A.H. Sm., 1953
 Cantharellus cinereus var. australis Cleland &amp; Cheel, 1923
@@ -547,11 +561,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cantharellus cinereus Pers., 1794[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Chanterelle cendrée[2].
-Cantharellus cinereus a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cantharellus cinereus Pers., 1794.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Chanterelle cendrée.
+Cantharellus cinereus a pour synonymes :
 Cantharellus cinereus Pers., 1794
 Cantharellus hydrolyps J. Schröt., 1888
 Craterellus cinereus (Pers.) Pers., 1825
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Persoon, C.H., « Neuer Versuch einer systematischen Eintheilung der Schwämme », Neues Magazin für die Botanik, vol. 1,‎ 1794, p. 63-80 (lire en ligne)</t>
         </is>
